--- a/Prestamos_por_periodo.xlsx
+++ b/Prestamos_por_periodo.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -476,7 +476,49 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>08/10/2024</t>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10/02/2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10/02/2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09/10/2024</t>
         </is>
       </c>
     </row>

--- a/Prestamos_por_periodo.xlsx
+++ b/Prestamos_por_periodo.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,10 +464,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,49 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10/02/2024</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10/10/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10/02/2024</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>09/10/2024</t>
+          <t>14/06/2025</t>
         </is>
       </c>
     </row>
